--- a/FCR_Template.xlsx
+++ b/FCR_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>AvWeight</t>
   </si>
@@ -34,12 +34,24 @@
   </si>
   <si>
     <t>4-8</t>
+  </si>
+  <si>
+    <t>8-20</t>
+  </si>
+  <si>
+    <t>20-50</t>
+  </si>
+  <si>
+    <t>50-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -93,6 +105,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -396,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +425,7 @@
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
     <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -421,7 +439,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -435,7 +453,7 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -449,8 +467,106 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>1.135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.3740000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.6850000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.2330000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>90</v>
+      </c>
+      <c r="B10" s="3">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.417</v>
       </c>
     </row>
   </sheetData>

--- a/FCR_Template.xlsx
+++ b/FCR_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>AvWeight</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>50-100</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>AvgCategory</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,6 +121,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,19 +427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,11 +448,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,11 +462,11 @@
       <c r="B2" s="3">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,11 +476,11 @@
       <c r="B3" s="3">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7">
+        <v>1.135</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1.135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,11 +490,11 @@
       <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.4119999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,11 +504,11 @@
       <c r="B5" s="3">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1.3740000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,11 +518,11 @@
       <c r="B6" s="3">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7">
+        <v>1.181</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,11 +532,11 @@
       <c r="B7" s="3">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>1.347</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.347</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,11 +546,11 @@
       <c r="B8" s="3">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="7">
         <v>1.6850000000000001</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,11 +560,11 @@
       <c r="B9" s="3">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="7">
         <v>1.2330000000000001</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,11 +574,221 @@
       <c r="B10" s="3">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="7">
         <v>1.417</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.573</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.331</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.603</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.248</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.196</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>65</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.252</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>85</v>
+      </c>
+      <c r="B24" s="3">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.677</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>90</v>
+      </c>
+      <c r="B25" s="3">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -576,106 +798,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D17"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(A2,B2)</f>
+        <v>2.25</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">AVERAGE(A3,B3)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FCR_Template.xlsx
+++ b/FCR_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="2730" windowWidth="20175" windowHeight="7965"/>
@@ -11,12 +11,15 @@
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="Φύλλο3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>AvWeight</t>
   </si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>AvgCategory</t>
+  </si>
+  <si>
+    <t>100-150</t>
   </si>
 </sst>
 </file>
@@ -130,8 +136,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +825,48 @@
         <v>8</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>96</v>
+      </c>
+      <c r="B26" s="3">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>103</v>
+      </c>
+      <c r="B27" s="3">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>120</v>
+      </c>
+      <c r="B28" s="3">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -798,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">AVERAGE(A3,B3)</f>
+        <f t="shared" ref="D3:D7" si="0">AVERAGE(A3,B3)</f>
         <v>6</v>
       </c>
     </row>
@@ -901,34 +977,19 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1">
+        <v>150</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FCR_Template.xlsx
+++ b/FCR_Template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>AvWeight</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +864,48 @@
         <v>1.8</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>127</v>
+      </c>
+      <c r="B29" s="3">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1.788</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>138</v>
+      </c>
+      <c r="B30" s="3">
+        <v>21</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1.431</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>147</v>
+      </c>
+      <c r="B31" s="3">
+        <v>16</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1.621</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
     </row>
